--- a/vignettes/MyDataOutput.xlsx
+++ b/vignettes/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/11/2018</t>
+    <t xml:space="preserve">Nov/12/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/MyDataOutput.xlsx
+++ b/vignettes/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/12/2018</t>
+    <t xml:space="preserve">Nov/13/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/MyDataOutput.xlsx
+++ b/vignettes/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/13/2018</t>
+    <t xml:space="preserve">Nov/14/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/MyDataOutput.xlsx
+++ b/vignettes/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/14/2018</t>
+    <t xml:space="preserve">Nov/17/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/MyDataOutput.xlsx
+++ b/vignettes/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/17/2018</t>
+    <t xml:space="preserve">Nov/20/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>
